--- a/docs/T製品開発/T製品開発 計画書.xlsx
+++ b/docs/T製品開発/T製品開発 計画書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dcinc.local\develop\inter_project\Miles\開発\Lakewood開発\付帯ドキュメント\デモデータ作成\江嵜作業中\xlsxデモデータ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ReviewSample\docs\T製品開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40650" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40656" windowHeight="12168" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="Lakewood_Outline_d4edae8125ae4392b981d0180807d47b">プロジェクト概要!$B$2:$B$2</definedName>
     <definedName name="Lakewood_Outline_ffe5bdb7f3444884aa2dc641f35616c6">'WBS1'!$B$2:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1973,6 +1973,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1982,29 +2006,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2013,39 +2046,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2087,8 +2087,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7668989" y="523875"/>
-          <a:ext cx="723275" cy="628650"/>
+          <a:off x="6910799" y="485775"/>
+          <a:ext cx="662315" cy="626745"/>
           <a:chOff x="6299492" y="1638300"/>
           <a:chExt cx="920531" cy="800100"/>
         </a:xfrm>
@@ -2533,19 +2533,21 @@
   </sheetPr>
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="54"/>
-    <col min="4" max="4" width="9.25" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="54" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="9" style="54"/>
-    <col min="12" max="13" width="11.25" style="54" customWidth="1"/>
+    <col min="12" max="13" width="11.21875" style="54" customWidth="1"/>
     <col min="14" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L2" s="51" t="s">
         <v>34</v>
       </c>
@@ -2553,36 +2555,36 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="55" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" s="55" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L3" s="50"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" s="55" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="55" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L4" s="91"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" ht="31.8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="56"/>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" ht="31.8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="57"/>
     </row>
-    <row r="10" spans="2:13" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="93">
         <f>MAX(改訂履歴!C5:C8)</f>
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -2598,24 +2600,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="3" customWidth="1"/>
+    <col min="1" max="2" width="4.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="52" t="s">
         <v>26</v>
       </c>
@@ -2629,13 +2633,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" s="92">
         <v>1</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">+プロジェクト概要!D4-7</f>
-        <v>42849</v>
+        <v>44718</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>30</v>
@@ -2644,19 +2648,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="6"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>1.01</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -2676,47 +2682,47 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="54" customWidth="1"/>
     <col min="3" max="3" width="11" style="54" customWidth="1"/>
     <col min="4" max="4" width="13" style="54" customWidth="1"/>
     <col min="5" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="20">
         <f ca="1">TODAY()-(WEEKDAY(TODAY())-2)+7</f>
-        <v>42856</v>
+        <v>44725</v>
       </c>
       <c r="E4" s="58"/>
     </row>
-    <row r="5" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="20">
         <f ca="1">D4+112</f>
-        <v>42968</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:9" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="21" t="s">
         <v>64</v>
@@ -2740,7 +2746,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="33" t="s">
         <v>114</v>
@@ -2752,7 +2758,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="94"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="33"/>
       <c r="D10" s="32"/>
@@ -2762,7 +2768,7 @@
       <c r="H10" s="32"/>
       <c r="I10" s="94"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="33" t="s">
         <v>104</v>
       </c>
@@ -2773,7 +2779,7 @@
       <c r="H11" s="32"/>
       <c r="I11" s="59"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="33" t="s">
         <v>103</v>
       </c>
@@ -2784,7 +2790,7 @@
       <c r="H12" s="32"/>
       <c r="I12" s="59"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C13" s="33"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -2793,7 +2799,7 @@
       <c r="H13" s="32"/>
       <c r="I13" s="59"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -2802,22 +2808,22 @@
       <c r="H14" s="35"/>
       <c r="I14" s="60"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="61"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="61"/>
     </row>
   </sheetData>
@@ -2832,29 +2838,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="21" style="3" customWidth="1"/>
-    <col min="4" max="8" width="11.25" style="3" customWidth="1"/>
+    <col min="4" max="8" width="11.21875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
         <v>41</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12" t="s">
         <v>47</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>48</v>
       </c>
@@ -2878,13 +2884,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="15"/>
       <c r="D7" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="11" t="s">
         <v>42</v>
       </c>
@@ -2892,59 +2898,59 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="D10" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9"/>
       <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" s="52" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="62">
         <f ca="1">プロジェクト概要!D4</f>
-        <v>42856</v>
+        <v>44725</v>
       </c>
       <c r="E15" s="62">
         <f ca="1">DATE(IF(MONTH(D15)=12,YEAR(D15)+1,YEAR(D15)),IF(MONTH(D15)=12,1,MONTH(D15)+1),1)</f>
-        <v>42887</v>
+        <v>44743</v>
       </c>
       <c r="F15" s="62">
         <f ca="1">DATE(IF(MONTH(E15)=12,YEAR(E15)+1,YEAR(E15)),IF(MONTH(E15)=12,1,MONTH(E15)+1),1)</f>
-        <v>42917</v>
+        <v>44774</v>
       </c>
       <c r="G15" s="62">
         <f ca="1">DATE(IF(MONTH(F15)=12,YEAR(F15)+1,YEAR(F15)),IF(MONTH(F15)=12,1,MONTH(F15)+1),1)</f>
-        <v>42948</v>
+        <v>44805</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
@@ -3091,7 +3097,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C23" s="19" t="s">
         <v>57</v>
       </c>
@@ -3119,29 +3125,29 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C25" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D29" s="63" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="2:9" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="47.4" x14ac:dyDescent="0.2">
       <c r="C30" s="52" t="s">
         <v>56</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="6" t="s">
         <v>39</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="6" t="s">
         <v>55</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="19" t="s">
         <v>57</v>
       </c>
@@ -3296,33 +3302,33 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="97" t="s">
         <v>16</v>
       </c>
@@ -3330,7 +3336,7 @@
       <c r="E6" s="98"/>
       <c r="F6" s="99"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="38"/>
       <c r="D7" s="97" t="s">
         <v>96</v>
@@ -3338,7 +3344,7 @@
       <c r="E7" s="98"/>
       <c r="F7" s="99"/>
     </row>
-    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="95" t="s">
@@ -3346,7 +3352,7 @@
       </c>
       <c r="F8" s="96"/>
     </row>
-    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="40"/>
@@ -3354,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="25"/>
@@ -3362,7 +3368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="95" t="s">
@@ -3370,7 +3376,7 @@
       </c>
       <c r="F11" s="96"/>
     </row>
-    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="40"/>
@@ -3378,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="25"/>
@@ -3386,7 +3392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="95" t="s">
@@ -3394,7 +3400,7 @@
       </c>
       <c r="F14" s="96"/>
     </row>
-    <row r="15" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="40"/>
@@ -3402,7 +3408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="25"/>
@@ -3410,7 +3416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="95" t="s">
@@ -3418,7 +3424,7 @@
       </c>
       <c r="F17" s="96"/>
     </row>
-    <row r="18" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="40"/>
@@ -3426,7 +3432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="25"/>
@@ -3434,7 +3440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="95" t="s">
@@ -3442,7 +3448,7 @@
       </c>
       <c r="F20" s="96"/>
     </row>
-    <row r="21" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="40"/>
@@ -3450,7 +3456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C22" s="38"/>
       <c r="D22" s="42"/>
       <c r="E22" s="25"/>
@@ -3458,7 +3464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="38"/>
       <c r="D23" s="97" t="s">
         <v>97</v>
@@ -3466,7 +3472,7 @@
       <c r="E23" s="98"/>
       <c r="F23" s="99"/>
     </row>
-    <row r="24" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="95" t="s">
@@ -3474,7 +3480,7 @@
       </c>
       <c r="F24" s="96"/>
     </row>
-    <row r="25" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="40"/>
@@ -3482,7 +3488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="25"/>
@@ -3490,7 +3496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="95" t="s">
@@ -3498,7 +3504,7 @@
       </c>
       <c r="F27" s="96"/>
     </row>
-    <row r="28" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="40"/>
@@ -3506,7 +3512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="25"/>
@@ -3514,7 +3520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="95" t="s">
@@ -3522,7 +3528,7 @@
       </c>
       <c r="F30" s="96"/>
     </row>
-    <row r="31" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="40"/>
@@ -3530,7 +3536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="25"/>
@@ -3538,7 +3544,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="95" t="s">
@@ -3546,7 +3552,7 @@
       </c>
       <c r="F33" s="96"/>
     </row>
-    <row r="34" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="40"/>
@@ -3554,7 +3560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="25"/>
@@ -3562,7 +3568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="95" t="s">
@@ -3570,7 +3576,7 @@
       </c>
       <c r="F36" s="96"/>
     </row>
-    <row r="37" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="40"/>
@@ -3578,7 +3584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="38"/>
       <c r="D38" s="42"/>
       <c r="E38" s="25"/>
@@ -3586,7 +3592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="38"/>
       <c r="D39" s="97" t="s">
         <v>98</v>
@@ -3594,7 +3600,7 @@
       <c r="E39" s="98"/>
       <c r="F39" s="99"/>
     </row>
-    <row r="40" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="95" t="s">
@@ -3602,7 +3608,7 @@
       </c>
       <c r="F40" s="96"/>
     </row>
-    <row r="41" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="40"/>
@@ -3610,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="25"/>
@@ -3618,7 +3624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="95" t="s">
@@ -3626,7 +3632,7 @@
       </c>
       <c r="F43" s="96"/>
     </row>
-    <row r="44" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="40"/>
@@ -3634,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="25"/>
@@ -3642,7 +3648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="95" t="s">
@@ -3650,7 +3656,7 @@
       </c>
       <c r="F46" s="96"/>
     </row>
-    <row r="47" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="40"/>
@@ -3658,7 +3664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="25"/>
@@ -3666,7 +3672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="95" t="s">
@@ -3674,7 +3680,7 @@
       </c>
       <c r="F49" s="96"/>
     </row>
-    <row r="50" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="40"/>
@@ -3682,7 +3688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="25"/>
@@ -3690,7 +3696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="95" t="s">
@@ -3698,7 +3704,7 @@
       </c>
       <c r="F52" s="96"/>
     </row>
-    <row r="53" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="40"/>
@@ -3706,7 +3712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="38"/>
       <c r="D54" s="42"/>
       <c r="E54" s="25"/>
@@ -3714,7 +3720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="38"/>
       <c r="D55" s="97" t="s">
         <v>75</v>
@@ -3722,7 +3728,7 @@
       <c r="E55" s="98"/>
       <c r="F55" s="99"/>
     </row>
-    <row r="56" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="95" t="s">
@@ -3730,7 +3736,7 @@
       </c>
       <c r="F56" s="96"/>
     </row>
-    <row r="57" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="40"/>
@@ -3738,7 +3744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="25"/>
@@ -3746,7 +3752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="95" t="s">
@@ -3754,7 +3760,7 @@
       </c>
       <c r="F59" s="96"/>
     </row>
-    <row r="60" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="40"/>
@@ -3762,7 +3768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:6" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="38"/>
       <c r="D61" s="42"/>
       <c r="E61" s="25"/>
@@ -3770,7 +3776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="37" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3784,7 @@
       <c r="E62" s="44"/>
       <c r="F62" s="39"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="38"/>
       <c r="D63" s="100" t="s">
         <v>11</v>
@@ -3786,7 +3792,7 @@
       <c r="E63" s="101"/>
       <c r="F63" s="102"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="38"/>
       <c r="D64" s="100" t="s">
         <v>78</v>
@@ -3794,7 +3800,7 @@
       <c r="E64" s="101"/>
       <c r="F64" s="102"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="38"/>
       <c r="D65" s="100" t="s">
         <v>12</v>
@@ -3802,7 +3808,7 @@
       <c r="E65" s="101"/>
       <c r="F65" s="102"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="42"/>
       <c r="D66" s="100" t="s">
         <v>76</v>
@@ -3812,12 +3818,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="D39:F39"/>
@@ -3828,16 +3838,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3854,38 +3860,38 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C6" s="80" t="s">
         <v>18</v>
       </c>
@@ -3911,13 +3917,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="111" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -3925,7 +3931,7 @@
       <c r="K7" s="67"/>
       <c r="L7" s="67"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C8" s="74"/>
       <c r="D8" s="108" t="s">
         <v>96</v>
@@ -3939,13 +3945,13 @@
       <c r="K8" s="71"/>
       <c r="L8" s="71"/>
     </row>
-    <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="74"/>
       <c r="D9" s="72"/>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
@@ -3953,7 +3959,7 @@
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
     </row>
-    <row r="10" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C10" s="74"/>
       <c r="D10" s="72"/>
       <c r="E10" s="89"/>
@@ -3968,11 +3974,11 @@
       </c>
       <c r="I10" s="29">
         <f ca="1">プロジェクト概要!D4</f>
-        <v>42856</v>
+        <v>44725</v>
       </c>
       <c r="J10" s="29">
         <f ca="1">I10+4</f>
-        <v>42860</v>
+        <v>44729</v>
       </c>
       <c r="K10" s="6">
         <v>16</v>
@@ -3981,7 +3987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C11" s="74"/>
       <c r="D11" s="72"/>
       <c r="E11" s="90"/>
@@ -3996,24 +4002,24 @@
       </c>
       <c r="I11" s="29">
         <f ca="1">I10+3</f>
-        <v>42859</v>
+        <v>44728</v>
       </c>
       <c r="J11" s="29">
         <f ca="1">I11+1</f>
-        <v>42860</v>
+        <v>44729</v>
       </c>
       <c r="K11" s="6">
         <v>4</v>
       </c>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C12" s="74"/>
       <c r="D12" s="72"/>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -4021,7 +4027,7 @@
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
     </row>
-    <row r="13" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C13" s="74"/>
       <c r="D13" s="72"/>
       <c r="E13" s="89"/>
@@ -4036,11 +4042,11 @@
       </c>
       <c r="I13" s="29">
         <f ca="1">I10+7</f>
-        <v>42863</v>
+        <v>44732</v>
       </c>
       <c r="J13" s="29">
         <f ca="1">I13+4</f>
-        <v>42867</v>
+        <v>44736</v>
       </c>
       <c r="K13" s="6">
         <v>24</v>
@@ -4049,7 +4055,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C14" s="74"/>
       <c r="D14" s="72"/>
       <c r="E14" s="90"/>
@@ -4064,24 +4070,24 @@
       </c>
       <c r="I14" s="29">
         <f ca="1">I13+3</f>
-        <v>42866</v>
+        <v>44735</v>
       </c>
       <c r="J14" s="29">
         <f ca="1">I14+1</f>
-        <v>42867</v>
+        <v>44736</v>
       </c>
       <c r="K14" s="6">
         <v>6</v>
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="74"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -4089,7 +4095,7 @@
       <c r="K15" s="68"/>
       <c r="L15" s="68"/>
     </row>
-    <row r="16" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C16" s="74"/>
       <c r="D16" s="72"/>
       <c r="E16" s="89"/>
@@ -4104,11 +4110,11 @@
       </c>
       <c r="I16" s="29">
         <f ca="1">I10+14</f>
-        <v>42870</v>
+        <v>44739</v>
       </c>
       <c r="J16" s="29">
         <f ca="1">I16+4</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K16" s="6">
         <v>90</v>
@@ -4117,7 +4123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C17" s="74"/>
       <c r="D17" s="72"/>
       <c r="E17" s="90"/>
@@ -4132,24 +4138,24 @@
       </c>
       <c r="I17" s="29">
         <f ca="1">I16+3</f>
-        <v>42873</v>
+        <v>44742</v>
       </c>
       <c r="J17" s="29">
         <f ca="1">I17+1</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K17" s="6">
         <v>20</v>
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C18" s="74"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="107"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4157,7 +4163,7 @@
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
     </row>
-    <row r="19" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C19" s="74"/>
       <c r="D19" s="72"/>
       <c r="E19" s="89"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="I19" s="29">
         <f ca="1">I10+14</f>
-        <v>42870</v>
+        <v>44739</v>
       </c>
       <c r="J19" s="29">
         <f ca="1">I19+4</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K19" s="6">
         <v>24</v>
@@ -4185,7 +4191,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C20" s="74"/>
       <c r="D20" s="72"/>
       <c r="E20" s="90"/>
@@ -4200,24 +4206,24 @@
       </c>
       <c r="I20" s="29">
         <f ca="1">I19+3</f>
-        <v>42873</v>
+        <v>44742</v>
       </c>
       <c r="J20" s="29">
         <f ca="1">I20+1</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K20" s="6">
         <v>6</v>
       </c>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C21" s="74"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="106" t="s">
+      <c r="E21" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -4225,7 +4231,7 @@
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
     </row>
-    <row r="22" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C22" s="74"/>
       <c r="D22" s="72"/>
       <c r="E22" s="89"/>
@@ -4240,11 +4246,11 @@
       </c>
       <c r="I22" s="29">
         <f ca="1">I10+21</f>
-        <v>42877</v>
+        <v>44746</v>
       </c>
       <c r="J22" s="29">
         <f ca="1">I22+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K22" s="6">
         <v>150</v>
@@ -4253,7 +4259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C23" s="74"/>
       <c r="D23" s="73"/>
       <c r="E23" s="90"/>
@@ -4268,18 +4274,18 @@
       </c>
       <c r="I23" s="29">
         <f ca="1">I22+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="J23" s="29">
         <f ca="1">I23</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K23" s="6">
         <v>4</v>
       </c>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="74"/>
       <c r="D24" s="108" t="s">
         <v>97</v>
@@ -4293,13 +4299,13 @@
       <c r="K24" s="71"/>
       <c r="L24" s="71"/>
     </row>
-    <row r="25" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="72"/>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="107"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="70"/>
@@ -4307,7 +4313,7 @@
       <c r="K25" s="68"/>
       <c r="L25" s="68"/>
     </row>
-    <row r="26" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C26" s="74"/>
       <c r="D26" s="72"/>
       <c r="E26" s="89"/>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="I26" s="29">
         <f ca="1">I10+21</f>
-        <v>42877</v>
+        <v>44746</v>
       </c>
       <c r="J26" s="29">
         <f ca="1">I26+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K26" s="6">
         <v>16</v>
@@ -4335,7 +4341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C27" s="74"/>
       <c r="D27" s="72"/>
       <c r="E27" s="90"/>
@@ -4350,24 +4356,24 @@
       </c>
       <c r="I27" s="29">
         <f ca="1">I26+3</f>
-        <v>42880</v>
+        <v>44749</v>
       </c>
       <c r="J27" s="29">
         <f ca="1">I27+1</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K27" s="6">
         <v>4</v>
       </c>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="74"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="107"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
@@ -4375,7 +4381,7 @@
       <c r="K28" s="68"/>
       <c r="L28" s="68"/>
     </row>
-    <row r="29" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C29" s="74"/>
       <c r="D29" s="72"/>
       <c r="E29" s="89"/>
@@ -4390,11 +4396,11 @@
       </c>
       <c r="I29" s="29">
         <f ca="1">I10+28</f>
-        <v>42884</v>
+        <v>44753</v>
       </c>
       <c r="J29" s="29">
         <f ca="1">I29+4</f>
-        <v>42888</v>
+        <v>44757</v>
       </c>
       <c r="K29" s="6">
         <v>24</v>
@@ -4403,7 +4409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C30" s="74"/>
       <c r="D30" s="72"/>
       <c r="E30" s="90"/>
@@ -4418,24 +4424,24 @@
       </c>
       <c r="I30" s="29">
         <f ca="1">I29+3</f>
-        <v>42887</v>
+        <v>44756</v>
       </c>
       <c r="J30" s="29">
         <f ca="1">I30+1</f>
-        <v>42888</v>
+        <v>44757</v>
       </c>
       <c r="K30" s="6">
         <v>6</v>
       </c>
       <c r="L30" s="31"/>
     </row>
-    <row r="31" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="74"/>
       <c r="D31" s="72"/>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="107"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68"/>
       <c r="I31" s="70"/>
@@ -4443,7 +4449,7 @@
       <c r="K31" s="68"/>
       <c r="L31" s="68"/>
     </row>
-    <row r="32" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="74"/>
       <c r="D32" s="72"/>
       <c r="E32" s="89"/>
@@ -4458,11 +4464,11 @@
       </c>
       <c r="I32" s="29">
         <f ca="1">I10+35</f>
-        <v>42891</v>
+        <v>44760</v>
       </c>
       <c r="J32" s="29">
         <f ca="1">I32+4</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K32" s="6">
         <v>90</v>
@@ -4471,7 +4477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C33" s="74"/>
       <c r="D33" s="72"/>
       <c r="E33" s="90"/>
@@ -4486,24 +4492,24 @@
       </c>
       <c r="I33" s="29">
         <f ca="1">I32+3</f>
-        <v>42894</v>
+        <v>44763</v>
       </c>
       <c r="J33" s="29">
         <f ca="1">I33+1</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K33" s="6">
         <v>20</v>
       </c>
       <c r="L33" s="31"/>
     </row>
-    <row r="34" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="74"/>
       <c r="D34" s="72"/>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68"/>
       <c r="I34" s="70"/>
@@ -4511,7 +4517,7 @@
       <c r="K34" s="68"/>
       <c r="L34" s="68"/>
     </row>
-    <row r="35" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C35" s="74"/>
       <c r="D35" s="72"/>
       <c r="E35" s="89"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="I35" s="29">
         <f ca="1">I10+35</f>
-        <v>42891</v>
+        <v>44760</v>
       </c>
       <c r="J35" s="29">
         <f ca="1">I35+4</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K35" s="6">
         <v>24</v>
@@ -4539,7 +4545,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C36" s="74"/>
       <c r="D36" s="72"/>
       <c r="E36" s="90"/>
@@ -4554,24 +4560,24 @@
       </c>
       <c r="I36" s="29">
         <f ca="1">I35+3</f>
-        <v>42894</v>
+        <v>44763</v>
       </c>
       <c r="J36" s="29">
         <f ca="1">I36+1</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K36" s="6">
         <v>6</v>
       </c>
       <c r="L36" s="31"/>
     </row>
-    <row r="37" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="74"/>
       <c r="D37" s="72"/>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="107"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="69"/>
       <c r="H37" s="68"/>
       <c r="I37" s="70"/>
@@ -4579,7 +4585,7 @@
       <c r="K37" s="68"/>
       <c r="L37" s="68"/>
     </row>
-    <row r="38" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="74"/>
       <c r="D38" s="72"/>
       <c r="E38" s="89"/>
@@ -4594,11 +4600,11 @@
       </c>
       <c r="I38" s="29">
         <f ca="1">I10+42</f>
-        <v>42898</v>
+        <v>44767</v>
       </c>
       <c r="J38" s="29">
         <f ca="1">I38+4</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="K38" s="6">
         <v>150</v>
@@ -4607,7 +4613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C39" s="74"/>
       <c r="D39" s="73"/>
       <c r="E39" s="90"/>
@@ -4622,18 +4628,18 @@
       </c>
       <c r="I39" s="29">
         <f ca="1">I38+4</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="J39" s="29">
         <f ca="1">I39</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="K39" s="6">
         <v>4</v>
       </c>
       <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="74"/>
       <c r="D40" s="108" t="s">
         <v>98</v>
@@ -4647,13 +4653,13 @@
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
     </row>
-    <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="74"/>
       <c r="D41" s="72"/>
-      <c r="E41" s="106" t="s">
+      <c r="E41" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="107"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="69"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
@@ -4661,7 +4667,7 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
     </row>
-    <row r="42" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="74"/>
       <c r="D42" s="72"/>
       <c r="E42" s="89"/>
@@ -4676,11 +4682,11 @@
       </c>
       <c r="I42" s="29">
         <f ca="1">I10+49</f>
-        <v>42905</v>
+        <v>44774</v>
       </c>
       <c r="J42" s="29">
         <f ca="1">I42+4</f>
-        <v>42909</v>
+        <v>44778</v>
       </c>
       <c r="K42" s="6">
         <v>16</v>
@@ -4689,7 +4695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="74"/>
       <c r="D43" s="72"/>
       <c r="E43" s="90"/>
@@ -4704,24 +4710,24 @@
       </c>
       <c r="I43" s="29">
         <f ca="1">I42+3</f>
-        <v>42908</v>
+        <v>44777</v>
       </c>
       <c r="J43" s="29">
         <f ca="1">I43+1</f>
-        <v>42909</v>
+        <v>44778</v>
       </c>
       <c r="K43" s="6">
         <v>4</v>
       </c>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="74"/>
       <c r="D44" s="72"/>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="107"/>
+      <c r="F44" s="104"/>
       <c r="G44" s="69"/>
       <c r="H44" s="68"/>
       <c r="I44" s="70"/>
@@ -4729,7 +4735,7 @@
       <c r="K44" s="68"/>
       <c r="L44" s="68"/>
     </row>
-    <row r="45" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="74"/>
       <c r="D45" s="72"/>
       <c r="E45" s="89"/>
@@ -4744,11 +4750,11 @@
       </c>
       <c r="I45" s="29">
         <f ca="1">I10+56</f>
-        <v>42912</v>
+        <v>44781</v>
       </c>
       <c r="J45" s="29">
         <f ca="1">I45+4</f>
-        <v>42916</v>
+        <v>44785</v>
       </c>
       <c r="K45" s="6">
         <v>24</v>
@@ -4757,7 +4763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="74"/>
       <c r="D46" s="72"/>
       <c r="E46" s="90"/>
@@ -4772,24 +4778,24 @@
       </c>
       <c r="I46" s="29">
         <f ca="1">I45+3</f>
-        <v>42915</v>
+        <v>44784</v>
       </c>
       <c r="J46" s="29">
         <f ca="1">I46+1</f>
-        <v>42916</v>
+        <v>44785</v>
       </c>
       <c r="K46" s="6">
         <v>6</v>
       </c>
       <c r="L46" s="31"/>
     </row>
-    <row r="47" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="74"/>
       <c r="D47" s="72"/>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="107"/>
+      <c r="F47" s="104"/>
       <c r="G47" s="69"/>
       <c r="H47" s="68"/>
       <c r="I47" s="70"/>
@@ -4797,7 +4803,7 @@
       <c r="K47" s="68"/>
       <c r="L47" s="68"/>
     </row>
-    <row r="48" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="74"/>
       <c r="D48" s="72"/>
       <c r="E48" s="89"/>
@@ -4812,11 +4818,11 @@
       </c>
       <c r="I48" s="29">
         <f ca="1">I10+63</f>
-        <v>42919</v>
+        <v>44788</v>
       </c>
       <c r="J48" s="29">
         <f ca="1">I48+4</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K48" s="6">
         <v>90</v>
@@ -4825,7 +4831,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="74"/>
       <c r="D49" s="72"/>
       <c r="E49" s="90"/>
@@ -4840,24 +4846,24 @@
       </c>
       <c r="I49" s="29">
         <f ca="1">I48+3</f>
-        <v>42922</v>
+        <v>44791</v>
       </c>
       <c r="J49" s="29">
         <f ca="1">I49+1</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K49" s="6">
         <v>20</v>
       </c>
       <c r="L49" s="31"/>
     </row>
-    <row r="50" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="74"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="107"/>
+      <c r="F50" s="104"/>
       <c r="G50" s="69"/>
       <c r="H50" s="68"/>
       <c r="I50" s="70"/>
@@ -4865,7 +4871,7 @@
       <c r="K50" s="68"/>
       <c r="L50" s="68"/>
     </row>
-    <row r="51" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="74"/>
       <c r="D51" s="72"/>
       <c r="E51" s="89"/>
@@ -4880,11 +4886,11 @@
       </c>
       <c r="I51" s="29">
         <f ca="1">I10+63</f>
-        <v>42919</v>
+        <v>44788</v>
       </c>
       <c r="J51" s="29">
         <f ca="1">I51+4</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K51" s="6">
         <v>24</v>
@@ -4893,7 +4899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="74"/>
       <c r="D52" s="72"/>
       <c r="E52" s="90"/>
@@ -4908,24 +4914,24 @@
       </c>
       <c r="I52" s="29">
         <f ca="1">I51+3</f>
-        <v>42922</v>
+        <v>44791</v>
       </c>
       <c r="J52" s="29">
         <f ca="1">I52+1</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K52" s="6">
         <v>6</v>
       </c>
       <c r="L52" s="31"/>
     </row>
-    <row r="53" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="74"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="106" t="s">
+      <c r="E53" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="107"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68"/>
       <c r="I53" s="70"/>
@@ -4933,7 +4939,7 @@
       <c r="K53" s="68"/>
       <c r="L53" s="68"/>
     </row>
-    <row r="54" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="74"/>
       <c r="D54" s="72"/>
       <c r="E54" s="89"/>
@@ -4948,11 +4954,11 @@
       </c>
       <c r="I54" s="29">
         <f ca="1">I10+70</f>
-        <v>42926</v>
+        <v>44795</v>
       </c>
       <c r="J54" s="29">
         <f ca="1">I54+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K54" s="6">
         <v>150</v>
@@ -4961,7 +4967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="74"/>
       <c r="D55" s="73"/>
       <c r="E55" s="90"/>
@@ -4976,18 +4982,18 @@
       </c>
       <c r="I55" s="29">
         <f ca="1">I54+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="J55" s="29">
         <f ca="1">I55</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K55" s="6">
         <v>4</v>
       </c>
       <c r="L55" s="31"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="74"/>
       <c r="D56" s="108" t="s">
         <v>75</v>
@@ -5001,13 +5007,13 @@
       <c r="K56" s="71"/>
       <c r="L56" s="71"/>
     </row>
-    <row r="57" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="74"/>
       <c r="D57" s="72"/>
-      <c r="E57" s="106" t="s">
+      <c r="E57" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="107"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="69"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
@@ -5015,7 +5021,7 @@
       <c r="K57" s="68"/>
       <c r="L57" s="68"/>
     </row>
-    <row r="58" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C58" s="74"/>
       <c r="D58" s="72"/>
       <c r="E58" s="89"/>
@@ -5030,11 +5036,11 @@
       </c>
       <c r="I58" s="29">
         <f ca="1">I10+70</f>
-        <v>42926</v>
+        <v>44795</v>
       </c>
       <c r="J58" s="29">
         <f ca="1">I58+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K58" s="6">
         <v>32</v>
@@ -5043,7 +5049,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C59" s="74"/>
       <c r="D59" s="72"/>
       <c r="E59" s="90"/>
@@ -5058,24 +5064,24 @@
       </c>
       <c r="I59" s="29">
         <f ca="1">I58+3</f>
-        <v>42929</v>
+        <v>44798</v>
       </c>
       <c r="J59" s="29">
         <f ca="1">I59+1</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K59" s="6">
         <v>6</v>
       </c>
       <c r="L59" s="31"/>
     </row>
-    <row r="60" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="74"/>
       <c r="D60" s="72"/>
-      <c r="E60" s="106" t="s">
+      <c r="E60" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="107"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="69"/>
       <c r="H60" s="68"/>
       <c r="I60" s="70"/>
@@ -5083,7 +5089,7 @@
       <c r="K60" s="68"/>
       <c r="L60" s="68"/>
     </row>
-    <row r="61" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="74"/>
       <c r="D61" s="72"/>
       <c r="E61" s="89"/>
@@ -5098,11 +5104,11 @@
       </c>
       <c r="I61" s="29">
         <f ca="1">I10+77</f>
-        <v>42933</v>
+        <v>44802</v>
       </c>
       <c r="J61" s="29">
         <f ca="1">I61+4</f>
-        <v>42937</v>
+        <v>44806</v>
       </c>
       <c r="K61" s="6">
         <v>280</v>
@@ -5111,7 +5117,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="74"/>
       <c r="D62" s="73"/>
       <c r="E62" s="90"/>
@@ -5126,18 +5132,18 @@
       </c>
       <c r="I62" s="29">
         <f ca="1">I61+7</f>
-        <v>42940</v>
+        <v>44809</v>
       </c>
       <c r="J62" s="29">
         <f ca="1">I62</f>
-        <v>42940</v>
+        <v>44809</v>
       </c>
       <c r="K62" s="6">
         <v>8</v>
       </c>
       <c r="L62" s="31"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="84" t="s">
         <v>10</v>
       </c>
@@ -5151,13 +5157,13 @@
       <c r="K63" s="67"/>
       <c r="L63" s="67"/>
     </row>
-    <row r="64" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="74"/>
-      <c r="D64" s="103" t="s">
+      <c r="D64" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="105"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="36" t="s">
         <v>4</v>
       </c>
@@ -5173,13 +5179,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="74"/>
-      <c r="D65" s="103" t="s">
+      <c r="D65" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="105"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="36" t="s">
         <v>4</v>
       </c>
@@ -5195,13 +5201,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="74"/>
-      <c r="D66" s="103" t="s">
+      <c r="D66" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="105"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="113"/>
       <c r="G66" s="36" t="s">
         <v>4</v>
       </c>
@@ -5217,13 +5223,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="75"/>
-      <c r="D67" s="103" t="s">
+      <c r="D67" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="105"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="113"/>
       <c r="G67" s="36" t="s">
         <v>38</v>
       </c>
@@ -5239,7 +5245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -5249,7 +5255,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
@@ -5261,12 +5267,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
@@ -5275,18 +5287,12 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5300,44 +5306,44 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="45" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="45" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.109375" style="45" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="21.6" x14ac:dyDescent="0.2">
       <c r="B2" s="43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C4" s="45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C6" s="114" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="78" t="s">
         <v>59</v>
       </c>
@@ -5357,14 +5363,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="119" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -5378,11 +5384,11 @@
       </c>
       <c r="I7" s="47">
         <f ca="1">プロジェクト概要!D4</f>
-        <v>42856</v>
+        <v>44725</v>
       </c>
       <c r="J7" s="47">
         <f ca="1">I7+4</f>
-        <v>42860</v>
+        <v>44729</v>
       </c>
       <c r="K7" s="46">
         <v>16</v>
@@ -5391,10 +5397,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C8" s="120"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="118"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="115"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
@@ -5406,21 +5412,21 @@
       </c>
       <c r="I8" s="47">
         <f ca="1">I7+3</f>
-        <v>42859</v>
+        <v>44728</v>
       </c>
       <c r="J8" s="47">
         <f ca="1">I8+1</f>
-        <v>42860</v>
+        <v>44729</v>
       </c>
       <c r="K8" s="46">
         <v>4</v>
       </c>
       <c r="L8" s="48"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C9" s="120"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="117" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="115"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="46" t="s">
@@ -5434,11 +5440,11 @@
       </c>
       <c r="I9" s="47">
         <f ca="1">I7+7</f>
-        <v>42863</v>
+        <v>44732</v>
       </c>
       <c r="J9" s="47">
         <f ca="1">I9+4</f>
-        <v>42867</v>
+        <v>44736</v>
       </c>
       <c r="K9" s="46">
         <v>24</v>
@@ -5447,10 +5453,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C10" s="120"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="118"/>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="115"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="46" t="s">
         <v>20</v>
       </c>
@@ -5462,21 +5468,21 @@
       </c>
       <c r="I10" s="47">
         <f ca="1">I9+3</f>
-        <v>42866</v>
+        <v>44735</v>
       </c>
       <c r="J10" s="47">
         <f ca="1">I10+1</f>
-        <v>42867</v>
+        <v>44736</v>
       </c>
       <c r="K10" s="46">
         <v>6</v>
       </c>
       <c r="L10" s="48"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="117" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="115"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -5490,11 +5496,11 @@
       </c>
       <c r="I11" s="47">
         <f ca="1">I7+14</f>
-        <v>42870</v>
+        <v>44739</v>
       </c>
       <c r="J11" s="47">
         <f ca="1">I11+4</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K11" s="46">
         <v>90</v>
@@ -5503,10 +5509,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="120"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="118"/>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="115"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
@@ -5518,21 +5524,21 @@
       </c>
       <c r="I12" s="47">
         <f ca="1">I11+3</f>
-        <v>42873</v>
+        <v>44742</v>
       </c>
       <c r="J12" s="47">
         <f ca="1">I12+1</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K12" s="46">
         <v>20</v>
       </c>
       <c r="L12" s="48"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="120"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="117" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="115"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -5546,11 +5552,11 @@
       </c>
       <c r="I13" s="47">
         <f ca="1">I7+14</f>
-        <v>42870</v>
+        <v>44739</v>
       </c>
       <c r="J13" s="47">
         <f ca="1">I13+4</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K13" s="46">
         <v>24</v>
@@ -5559,10 +5565,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C14" s="120"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="118"/>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="115"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
@@ -5574,21 +5580,21 @@
       </c>
       <c r="I14" s="47">
         <f ca="1">I13+3</f>
-        <v>42873</v>
+        <v>44742</v>
       </c>
       <c r="J14" s="47">
         <f ca="1">I14+1</f>
-        <v>42874</v>
+        <v>44743</v>
       </c>
       <c r="K14" s="46">
         <v>6</v>
       </c>
       <c r="L14" s="48"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C15" s="120"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="117" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="115"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -5602,11 +5608,11 @@
       </c>
       <c r="I15" s="47">
         <f ca="1">I7+21</f>
-        <v>42877</v>
+        <v>44746</v>
       </c>
       <c r="J15" s="47">
         <f ca="1">I15+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K15" s="46">
         <v>150</v>
@@ -5615,10 +5621,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C16" s="120"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="118"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="115"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
@@ -5630,23 +5636,23 @@
       </c>
       <c r="I16" s="47">
         <f ca="1">I15+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="J16" s="47">
         <f ca="1">I16</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K16" s="46">
         <v>4</v>
       </c>
       <c r="L16" s="48"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C17" s="120"/>
-      <c r="D17" s="122" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="115"/>
+      <c r="D17" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="46" t="s">
@@ -5660,11 +5666,11 @@
       </c>
       <c r="I17" s="47">
         <f ca="1">I7+21</f>
-        <v>42877</v>
+        <v>44746</v>
       </c>
       <c r="J17" s="47">
         <f ca="1">I17+4</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K17" s="46">
         <v>16</v>
@@ -5673,10 +5679,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C18" s="120"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="118"/>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="115"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="46" t="s">
         <v>19</v>
       </c>
@@ -5688,21 +5694,21 @@
       </c>
       <c r="I18" s="47">
         <f ca="1">I17+3</f>
-        <v>42880</v>
+        <v>44749</v>
       </c>
       <c r="J18" s="47">
         <f ca="1">I18+1</f>
-        <v>42881</v>
+        <v>44750</v>
       </c>
       <c r="K18" s="46">
         <v>4</v>
       </c>
       <c r="L18" s="48"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C19" s="120"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="117" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="115"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="46" t="s">
@@ -5716,11 +5722,11 @@
       </c>
       <c r="I19" s="47">
         <f ca="1">I7+28</f>
-        <v>42884</v>
+        <v>44753</v>
       </c>
       <c r="J19" s="47">
         <f ca="1">I19+4</f>
-        <v>42888</v>
+        <v>44757</v>
       </c>
       <c r="K19" s="46">
         <v>24</v>
@@ -5729,10 +5735,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="118"/>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="115"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
@@ -5744,21 +5750,21 @@
       </c>
       <c r="I20" s="47">
         <f ca="1">I19+3</f>
-        <v>42887</v>
+        <v>44756</v>
       </c>
       <c r="J20" s="47">
         <f ca="1">I20+1</f>
-        <v>42888</v>
+        <v>44757</v>
       </c>
       <c r="K20" s="46">
         <v>6</v>
       </c>
       <c r="L20" s="48"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C21" s="120"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="117" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="115"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="46" t="s">
@@ -5772,11 +5778,11 @@
       </c>
       <c r="I21" s="47">
         <f ca="1">I7+35</f>
-        <v>42891</v>
+        <v>44760</v>
       </c>
       <c r="J21" s="47">
         <f ca="1">I21+4</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K21" s="46">
         <v>90</v>
@@ -5785,10 +5791,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C22" s="120"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="118"/>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="115"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="46" t="s">
         <v>73</v>
       </c>
@@ -5800,21 +5806,21 @@
       </c>
       <c r="I22" s="47">
         <f ca="1">I21+3</f>
-        <v>42894</v>
+        <v>44763</v>
       </c>
       <c r="J22" s="47">
         <f ca="1">I22+1</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K22" s="46">
         <v>20</v>
       </c>
       <c r="L22" s="48"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C23" s="120"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="117" t="s">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="115"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="46" t="s">
@@ -5828,11 +5834,11 @@
       </c>
       <c r="I23" s="47">
         <f ca="1">I7+35</f>
-        <v>42891</v>
+        <v>44760</v>
       </c>
       <c r="J23" s="47">
         <f ca="1">I23+4</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K23" s="46">
         <v>24</v>
@@ -5841,10 +5847,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C24" s="120"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="118"/>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="115"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="46" t="s">
         <v>22</v>
       </c>
@@ -5856,21 +5862,21 @@
       </c>
       <c r="I24" s="47">
         <f ca="1">I23+3</f>
-        <v>42894</v>
+        <v>44763</v>
       </c>
       <c r="J24" s="47">
         <f ca="1">I24+1</f>
-        <v>42895</v>
+        <v>44764</v>
       </c>
       <c r="K24" s="46">
         <v>6</v>
       </c>
       <c r="L24" s="48"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C25" s="120"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="117" t="s">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="115"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="46" t="s">
@@ -5884,11 +5890,11 @@
       </c>
       <c r="I25" s="47">
         <f ca="1">I7+42</f>
-        <v>42898</v>
+        <v>44767</v>
       </c>
       <c r="J25" s="47">
         <f ca="1">I25+4</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="K25" s="46">
         <v>150</v>
@@ -5897,10 +5903,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C26" s="120"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="118"/>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" s="115"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46" t="s">
         <v>24</v>
       </c>
@@ -5912,23 +5918,23 @@
       </c>
       <c r="I26" s="47">
         <f ca="1">I25+4</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="J26" s="47">
         <f ca="1">I26</f>
-        <v>42902</v>
+        <v>44771</v>
       </c>
       <c r="K26" s="46">
         <v>4</v>
       </c>
       <c r="L26" s="48"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C27" s="120"/>
-      <c r="D27" s="122" t="s">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" s="115"/>
+      <c r="D27" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="46" t="s">
@@ -5942,11 +5948,11 @@
       </c>
       <c r="I27" s="47">
         <f ca="1">I7+49</f>
-        <v>42905</v>
+        <v>44774</v>
       </c>
       <c r="J27" s="47">
         <f ca="1">I27+4</f>
-        <v>42909</v>
+        <v>44778</v>
       </c>
       <c r="K27" s="46">
         <v>16</v>
@@ -5955,10 +5961,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C28" s="120"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="118"/>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" s="115"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46" t="s">
         <v>19</v>
       </c>
@@ -5970,21 +5976,21 @@
       </c>
       <c r="I28" s="47">
         <f ca="1">I27+3</f>
-        <v>42908</v>
+        <v>44777</v>
       </c>
       <c r="J28" s="47">
         <f ca="1">I28+1</f>
-        <v>42909</v>
+        <v>44778</v>
       </c>
       <c r="K28" s="46">
         <v>4</v>
       </c>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C29" s="120"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="117" t="s">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" s="115"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="46" t="s">
@@ -5998,11 +6004,11 @@
       </c>
       <c r="I29" s="47">
         <f ca="1">I7+56</f>
-        <v>42912</v>
+        <v>44781</v>
       </c>
       <c r="J29" s="47">
         <f ca="1">I29+4</f>
-        <v>42916</v>
+        <v>44785</v>
       </c>
       <c r="K29" s="46">
         <v>24</v>
@@ -6011,10 +6017,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C30" s="120"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="118"/>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="115"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="46" t="s">
         <v>20</v>
       </c>
@@ -6026,21 +6032,21 @@
       </c>
       <c r="I30" s="47">
         <f ca="1">I29+3</f>
-        <v>42915</v>
+        <v>44784</v>
       </c>
       <c r="J30" s="47">
         <f ca="1">I30+1</f>
-        <v>42916</v>
+        <v>44785</v>
       </c>
       <c r="K30" s="46">
         <v>6</v>
       </c>
       <c r="L30" s="48"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C31" s="120"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="117" t="s">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="115"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
@@ -6054,11 +6060,11 @@
       </c>
       <c r="I31" s="47">
         <f ca="1">I7+63</f>
-        <v>42919</v>
+        <v>44788</v>
       </c>
       <c r="J31" s="47">
         <f ca="1">I31+4</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K31" s="46">
         <v>90</v>
@@ -6067,10 +6073,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C32" s="120"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="118"/>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="115"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="46" t="s">
         <v>73</v>
       </c>
@@ -6082,21 +6088,21 @@
       </c>
       <c r="I32" s="47">
         <f ca="1">I31+3</f>
-        <v>42922</v>
+        <v>44791</v>
       </c>
       <c r="J32" s="47">
         <f ca="1">I32+1</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K32" s="46">
         <v>20</v>
       </c>
       <c r="L32" s="48"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C33" s="120"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="117" t="s">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="115"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
@@ -6110,11 +6116,11 @@
       </c>
       <c r="I33" s="47">
         <f ca="1">I7+63</f>
-        <v>42919</v>
+        <v>44788</v>
       </c>
       <c r="J33" s="47">
         <f ca="1">I33+4</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K33" s="46">
         <v>24</v>
@@ -6123,10 +6129,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C34" s="120"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="118"/>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="115"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="124"/>
       <c r="F34" s="46" t="s">
         <v>22</v>
       </c>
@@ -6138,21 +6144,21 @@
       </c>
       <c r="I34" s="47">
         <f ca="1">I33+3</f>
-        <v>42922</v>
+        <v>44791</v>
       </c>
       <c r="J34" s="47">
         <f ca="1">I34+1</f>
-        <v>42923</v>
+        <v>44792</v>
       </c>
       <c r="K34" s="46">
         <v>6</v>
       </c>
       <c r="L34" s="48"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C35" s="120"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="117" t="s">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="115"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="46" t="s">
@@ -6166,11 +6172,11 @@
       </c>
       <c r="I35" s="47">
         <f ca="1">I7+70</f>
-        <v>42926</v>
+        <v>44795</v>
       </c>
       <c r="J35" s="47">
         <f ca="1">I35+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K35" s="46">
         <v>150</v>
@@ -6179,10 +6185,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C36" s="120"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="118"/>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="115"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="46" t="s">
         <v>24</v>
       </c>
@@ -6194,23 +6200,23 @@
       </c>
       <c r="I36" s="47">
         <f ca="1">I35+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="J36" s="47">
         <f ca="1">I36</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K36" s="46">
         <v>4</v>
       </c>
       <c r="L36" s="48"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C37" s="120"/>
-      <c r="D37" s="122" t="s">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" s="115"/>
+      <c r="D37" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="46" t="s">
@@ -6224,11 +6230,11 @@
       </c>
       <c r="I37" s="47">
         <f ca="1">I7+70</f>
-        <v>42926</v>
+        <v>44795</v>
       </c>
       <c r="J37" s="47">
         <f ca="1">I37+4</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K37" s="46">
         <v>32</v>
@@ -6237,10 +6243,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C38" s="120"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="118"/>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" s="115"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="46" t="s">
         <v>22</v>
       </c>
@@ -6252,21 +6258,21 @@
       </c>
       <c r="I38" s="47">
         <f ca="1">I37+3</f>
-        <v>42929</v>
+        <v>44798</v>
       </c>
       <c r="J38" s="47">
         <f ca="1">I38+1</f>
-        <v>42930</v>
+        <v>44799</v>
       </c>
       <c r="K38" s="46">
         <v>6</v>
       </c>
       <c r="L38" s="48"/>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C39" s="120"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="117" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" s="115"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="46" t="s">
@@ -6280,11 +6286,11 @@
       </c>
       <c r="I39" s="47">
         <f ca="1">I7+77</f>
-        <v>42933</v>
+        <v>44802</v>
       </c>
       <c r="J39" s="47">
         <f ca="1">I39+4</f>
-        <v>42937</v>
+        <v>44806</v>
       </c>
       <c r="K39" s="46">
         <v>280</v>
@@ -6293,10 +6299,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C40" s="121"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="118"/>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" s="116"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="46" t="s">
         <v>24</v>
       </c>
@@ -6308,26 +6314,26 @@
       </c>
       <c r="I40" s="47">
         <f ca="1">I39+7</f>
-        <v>42940</v>
+        <v>44809</v>
       </c>
       <c r="J40" s="47">
         <f ca="1">I40</f>
-        <v>42940</v>
+        <v>44809</v>
       </c>
       <c r="K40" s="46">
         <v>8</v>
       </c>
       <c r="L40" s="48"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C41" s="119" t="s">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="46" t="s">
         <v>4</v>
       </c>
@@ -6343,13 +6349,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C42" s="120"/>
-      <c r="D42" s="125" t="s">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42" s="115"/>
+      <c r="D42" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="46" t="s">
         <v>4</v>
       </c>
@@ -6365,13 +6371,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C43" s="120"/>
-      <c r="D43" s="125" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43" s="115"/>
+      <c r="D43" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="46" t="s">
         <v>4</v>
       </c>
@@ -6387,13 +6393,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C44" s="121"/>
-      <c r="D44" s="125" t="s">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C44" s="116"/>
+      <c r="D44" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="46" t="s">
         <v>38</v>
       </c>
@@ -6411,6 +6417,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="D17:D26"/>
@@ -6427,18 +6445,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/T製品開発/T製品開発 計画書.xlsx
+++ b/docs/T製品開発/T製品開発 計画書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40656" windowHeight="12168" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40656" windowHeight="12168" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -1973,12 +1973,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1988,23 +2006,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2031,21 +2046,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D10" s="93">
         <f>MAX(改訂履歴!C5:C8)</f>
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2838,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3290,6 +3290,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3818,16 +3819,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="D39:F39"/>
@@ -3838,12 +3835,16 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D65:F65"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,12 +3919,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -3948,10 +3949,10 @@
     <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="74"/>
       <c r="D9" s="72"/>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
@@ -4016,10 +4017,10 @@
     <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C12" s="74"/>
       <c r="D12" s="72"/>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -4084,10 +4085,10 @@
     <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="74"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -4152,10 +4153,10 @@
     <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C18" s="74"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4220,10 +4221,10 @@
     <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C21" s="74"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="104"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -4302,10 +4303,10 @@
     <row r="25" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="72"/>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="104"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="70"/>
@@ -4370,10 +4371,10 @@
     <row r="28" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="74"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="104"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
@@ -4438,10 +4439,10 @@
     <row r="31" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="74"/>
       <c r="D31" s="72"/>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="104"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68"/>
       <c r="I31" s="70"/>
@@ -4506,10 +4507,10 @@
     <row r="34" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="74"/>
       <c r="D34" s="72"/>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="104"/>
+      <c r="F34" s="107"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68"/>
       <c r="I34" s="70"/>
@@ -4574,10 +4575,10 @@
     <row r="37" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="74"/>
       <c r="D37" s="72"/>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="104"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="69"/>
       <c r="H37" s="68"/>
       <c r="I37" s="70"/>
@@ -4656,10 +4657,10 @@
     <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="74"/>
       <c r="D41" s="72"/>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="69"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
@@ -4724,10 +4725,10 @@
     <row r="44" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="74"/>
       <c r="D44" s="72"/>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="104"/>
+      <c r="F44" s="107"/>
       <c r="G44" s="69"/>
       <c r="H44" s="68"/>
       <c r="I44" s="70"/>
@@ -4792,10 +4793,10 @@
     <row r="47" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="74"/>
       <c r="D47" s="72"/>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="104"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="69"/>
       <c r="H47" s="68"/>
       <c r="I47" s="70"/>
@@ -4860,10 +4861,10 @@
     <row r="50" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="74"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="104"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="69"/>
       <c r="H50" s="68"/>
       <c r="I50" s="70"/>
@@ -4928,10 +4929,10 @@
     <row r="53" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="74"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="104"/>
+      <c r="F53" s="107"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68"/>
       <c r="I53" s="70"/>
@@ -5010,10 +5011,10 @@
     <row r="57" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="74"/>
       <c r="D57" s="72"/>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="104"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="69"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
@@ -5078,10 +5079,10 @@
     <row r="60" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="74"/>
       <c r="D60" s="72"/>
-      <c r="E60" s="103" t="s">
+      <c r="E60" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="69"/>
       <c r="H60" s="68"/>
       <c r="I60" s="70"/>
@@ -5159,11 +5160,11 @@
     </row>
     <row r="64" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="74"/>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="105"/>
       <c r="G64" s="36" t="s">
         <v>4</v>
       </c>
@@ -5181,11 +5182,11 @@
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="74"/>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="113"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="36" t="s">
         <v>4</v>
       </c>
@@ -5203,11 +5204,11 @@
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="74"/>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="105"/>
       <c r="G66" s="36" t="s">
         <v>4</v>
       </c>
@@ -5225,11 +5226,11 @@
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="75"/>
-      <c r="D67" s="111" t="s">
+      <c r="D67" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="105"/>
       <c r="G67" s="36" t="s">
         <v>38</v>
       </c>
@@ -5267,18 +5268,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
@@ -5287,12 +5282,18 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D66:F66"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5338,12 +5339,12 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="78" t="s">
         <v>59</v>
       </c>
@@ -5364,13 +5365,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -5398,9 +5399,9 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="115"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="124"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
@@ -5424,9 +5425,9 @@
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="115"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="123" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="46" t="s">
@@ -5454,9 +5455,9 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="115"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="46" t="s">
         <v>20</v>
       </c>
@@ -5480,9 +5481,9 @@
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="115"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="123" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -5510,9 +5511,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="115"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
@@ -5536,9 +5537,9 @@
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="115"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="123" t="s">
+      <c r="C13" s="120"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -5566,9 +5567,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="115"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
@@ -5592,9 +5593,9 @@
       <c r="L14" s="48"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="115"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="123" t="s">
+      <c r="C15" s="120"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -5622,9 +5623,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="115"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
@@ -5648,11 +5649,11 @@
       <c r="L16" s="48"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="115"/>
-      <c r="D17" s="117" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="123" t="s">
+      <c r="E17" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="46" t="s">
@@ -5680,9 +5681,9 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="115"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="124"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="46" t="s">
         <v>19</v>
       </c>
@@ -5706,9 +5707,9 @@
       <c r="L18" s="48"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="115"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="123" t="s">
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="46" t="s">
@@ -5736,9 +5737,9 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="115"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="124"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
@@ -5762,9 +5763,9 @@
       <c r="L20" s="48"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="115"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="123" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="46" t="s">
@@ -5792,9 +5793,9 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="115"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="124"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="46" t="s">
         <v>73</v>
       </c>
@@ -5818,9 +5819,9 @@
       <c r="L22" s="48"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="115"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="123" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="46" t="s">
@@ -5848,9 +5849,9 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="115"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="124"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="46" t="s">
         <v>22</v>
       </c>
@@ -5874,9 +5875,9 @@
       <c r="L24" s="48"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="115"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="123" t="s">
+      <c r="C25" s="120"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="46" t="s">
@@ -5904,9 +5905,9 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="115"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="124"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="46" t="s">
         <v>24</v>
       </c>
@@ -5930,11 +5931,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="115"/>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="46" t="s">
@@ -5962,9 +5963,9 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="115"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="124"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="46" t="s">
         <v>19</v>
       </c>
@@ -5988,9 +5989,9 @@
       <c r="L28" s="48"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="115"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="123" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="46" t="s">
@@ -6018,9 +6019,9 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="115"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="124"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="118"/>
       <c r="F30" s="46" t="s">
         <v>20</v>
       </c>
@@ -6044,9 +6045,9 @@
       <c r="L30" s="48"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="115"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="123" t="s">
+      <c r="C31" s="120"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
@@ -6074,9 +6075,9 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="115"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="46" t="s">
         <v>73</v>
       </c>
@@ -6100,9 +6101,9 @@
       <c r="L32" s="48"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="115"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="123" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
@@ -6130,9 +6131,9 @@
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="115"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="124"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="46" t="s">
         <v>22</v>
       </c>
@@ -6156,9 +6157,9 @@
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="115"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="123" t="s">
+      <c r="C35" s="120"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="46" t="s">
@@ -6186,9 +6187,9 @@
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="115"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="124"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="46" t="s">
         <v>24</v>
       </c>
@@ -6212,11 +6213,11 @@
       <c r="L36" s="48"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="115"/>
-      <c r="D37" s="117" t="s">
+      <c r="C37" s="120"/>
+      <c r="D37" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="46" t="s">
@@ -6244,9 +6245,9 @@
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="115"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="124"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="46" t="s">
         <v>22</v>
       </c>
@@ -6270,9 +6271,9 @@
       <c r="L38" s="48"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="115"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="123" t="s">
+      <c r="C39" s="120"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="46" t="s">
@@ -6300,9 +6301,9 @@
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="116"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="124"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="46" t="s">
         <v>24</v>
       </c>
@@ -6326,14 +6327,14 @@
       <c r="L40" s="48"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="46" t="s">
         <v>4</v>
       </c>
@@ -6350,12 +6351,12 @@
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="115"/>
-      <c r="D42" s="120" t="s">
+      <c r="C42" s="120"/>
+      <c r="D42" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="121"/>
-      <c r="F42" s="122"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="46" t="s">
         <v>4</v>
       </c>
@@ -6372,12 +6373,12 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="115"/>
-      <c r="D43" s="120" t="s">
+      <c r="C43" s="120"/>
+      <c r="D43" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="127"/>
       <c r="G43" s="46" t="s">
         <v>4</v>
       </c>
@@ -6394,12 +6395,12 @@
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="116"/>
-      <c r="D44" s="120" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="122"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="46" t="s">
         <v>38</v>
       </c>
@@ -6417,18 +6418,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="D17:D26"/>
@@ -6445,6 +6434,18 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/T製品開発/T製品開発 計画書.xlsx
+++ b/docs/T製品開発/T製品開発 計画書.xlsx
@@ -1973,6 +1973,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1982,29 +2006,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2013,39 +2046,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D10" s="93">
         <f>MAX(改訂履歴!C5:C8)</f>
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2601,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -3819,12 +3819,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="D39:F39"/>
@@ -3835,16 +3839,12 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3919,12 +3919,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -3949,10 +3949,10 @@
     <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="74"/>
       <c r="D9" s="72"/>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="107"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
@@ -4017,10 +4017,10 @@
     <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C12" s="74"/>
       <c r="D12" s="72"/>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -4085,10 +4085,10 @@
     <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="74"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -4153,10 +4153,10 @@
     <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C18" s="74"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="107"/>
+      <c r="F18" s="104"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4221,10 +4221,10 @@
     <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C21" s="74"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="106" t="s">
+      <c r="E21" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -4303,10 +4303,10 @@
     <row r="25" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="72"/>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="107"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="70"/>
@@ -4371,10 +4371,10 @@
     <row r="28" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="74"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="106" t="s">
+      <c r="E28" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="107"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
@@ -4439,10 +4439,10 @@
     <row r="31" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="74"/>
       <c r="D31" s="72"/>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="107"/>
+      <c r="F31" s="104"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68"/>
       <c r="I31" s="70"/>
@@ -4507,10 +4507,10 @@
     <row r="34" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="74"/>
       <c r="D34" s="72"/>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68"/>
       <c r="I34" s="70"/>
@@ -4575,10 +4575,10 @@
     <row r="37" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="74"/>
       <c r="D37" s="72"/>
-      <c r="E37" s="106" t="s">
+      <c r="E37" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="107"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="69"/>
       <c r="H37" s="68"/>
       <c r="I37" s="70"/>
@@ -4657,10 +4657,10 @@
     <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="74"/>
       <c r="D41" s="72"/>
-      <c r="E41" s="106" t="s">
+      <c r="E41" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="107"/>
+      <c r="F41" s="104"/>
       <c r="G41" s="69"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
@@ -4725,10 +4725,10 @@
     <row r="44" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="74"/>
       <c r="D44" s="72"/>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="107"/>
+      <c r="F44" s="104"/>
       <c r="G44" s="69"/>
       <c r="H44" s="68"/>
       <c r="I44" s="70"/>
@@ -4793,10 +4793,10 @@
     <row r="47" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="74"/>
       <c r="D47" s="72"/>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="107"/>
+      <c r="F47" s="104"/>
       <c r="G47" s="69"/>
       <c r="H47" s="68"/>
       <c r="I47" s="70"/>
@@ -4861,10 +4861,10 @@
     <row r="50" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="74"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="106" t="s">
+      <c r="E50" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="107"/>
+      <c r="F50" s="104"/>
       <c r="G50" s="69"/>
       <c r="H50" s="68"/>
       <c r="I50" s="70"/>
@@ -4929,10 +4929,10 @@
     <row r="53" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="74"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="106" t="s">
+      <c r="E53" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="107"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68"/>
       <c r="I53" s="70"/>
@@ -5011,10 +5011,10 @@
     <row r="57" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="74"/>
       <c r="D57" s="72"/>
-      <c r="E57" s="106" t="s">
+      <c r="E57" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="107"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="69"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
@@ -5079,10 +5079,10 @@
     <row r="60" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="74"/>
       <c r="D60" s="72"/>
-      <c r="E60" s="106" t="s">
+      <c r="E60" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="107"/>
+      <c r="F60" s="104"/>
       <c r="G60" s="69"/>
       <c r="H60" s="68"/>
       <c r="I60" s="70"/>
@@ -5160,11 +5160,11 @@
     </row>
     <row r="64" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="74"/>
-      <c r="D64" s="103" t="s">
+      <c r="D64" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="104"/>
-      <c r="F64" s="105"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="113"/>
       <c r="G64" s="36" t="s">
         <v>4</v>
       </c>
@@ -5182,11 +5182,11 @@
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="74"/>
-      <c r="D65" s="103" t="s">
+      <c r="D65" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="104"/>
-      <c r="F65" s="105"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="113"/>
       <c r="G65" s="36" t="s">
         <v>4</v>
       </c>
@@ -5204,11 +5204,11 @@
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="74"/>
-      <c r="D66" s="103" t="s">
+      <c r="D66" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="104"/>
-      <c r="F66" s="105"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="113"/>
       <c r="G66" s="36" t="s">
         <v>4</v>
       </c>
@@ -5226,11 +5226,11 @@
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="75"/>
-      <c r="D67" s="103" t="s">
+      <c r="D67" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="104"/>
-      <c r="F67" s="105"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="113"/>
       <c r="G67" s="36" t="s">
         <v>38</v>
       </c>
@@ -5268,12 +5268,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
@@ -5282,18 +5288,12 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5339,12 +5339,12 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="78" t="s">
         <v>59</v>
       </c>
@@ -5365,13 +5365,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -5399,9 +5399,9 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="120"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="118"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="124"/>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
@@ -5425,9 +5425,9 @@
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="120"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="117" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="46" t="s">
@@ -5455,9 +5455,9 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="120"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="118"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="46" t="s">
         <v>20</v>
       </c>
@@ -5481,9 +5481,9 @@
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="120"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="117" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -5511,9 +5511,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="120"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="118"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="124"/>
       <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
@@ -5537,9 +5537,9 @@
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="120"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="117" t="s">
+      <c r="C13" s="115"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -5567,9 +5567,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="120"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="118"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
@@ -5593,9 +5593,9 @@
       <c r="L14" s="48"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="120"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="117" t="s">
+      <c r="C15" s="115"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -5623,9 +5623,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="120"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="118"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
@@ -5649,11 +5649,11 @@
       <c r="L16" s="48"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="120"/>
-      <c r="D17" s="122" t="s">
+      <c r="C17" s="115"/>
+      <c r="D17" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="46" t="s">
@@ -5681,9 +5681,9 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="120"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="118"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="46" t="s">
         <v>19</v>
       </c>
@@ -5707,9 +5707,9 @@
       <c r="L18" s="48"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="120"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="117" t="s">
+      <c r="C19" s="115"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="46" t="s">
@@ -5737,9 +5737,9 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="118"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="124"/>
       <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
@@ -5763,9 +5763,9 @@
       <c r="L20" s="48"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="120"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="117" t="s">
+      <c r="C21" s="115"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="46" t="s">
@@ -5793,9 +5793,9 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="120"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="118"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="46" t="s">
         <v>73</v>
       </c>
@@ -5819,9 +5819,9 @@
       <c r="L22" s="48"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="120"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="117" t="s">
+      <c r="C23" s="115"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="46" t="s">
@@ -5849,9 +5849,9 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="120"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="118"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="46" t="s">
         <v>22</v>
       </c>
@@ -5875,9 +5875,9 @@
       <c r="L24" s="48"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="120"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="117" t="s">
+      <c r="C25" s="115"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="46" t="s">
@@ -5905,9 +5905,9 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="120"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="118"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46" t="s">
         <v>24</v>
       </c>
@@ -5931,11 +5931,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="120"/>
-      <c r="D27" s="122" t="s">
+      <c r="C27" s="115"/>
+      <c r="D27" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="123" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="46" t="s">
@@ -5963,9 +5963,9 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="120"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46" t="s">
         <v>19</v>
       </c>
@@ -5989,9 +5989,9 @@
       <c r="L28" s="48"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="120"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="117" t="s">
+      <c r="C29" s="115"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="123" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="46" t="s">
@@ -6019,9 +6019,9 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="120"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="118"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="46" t="s">
         <v>20</v>
       </c>
@@ -6045,9 +6045,9 @@
       <c r="L30" s="48"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="120"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="117" t="s">
+      <c r="C31" s="115"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="123" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
@@ -6075,9 +6075,9 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="120"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="124"/>
       <c r="F32" s="46" t="s">
         <v>73</v>
       </c>
@@ -6101,9 +6101,9 @@
       <c r="L32" s="48"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="120"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="117" t="s">
+      <c r="C33" s="115"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
@@ -6131,9 +6131,9 @@
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="120"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="118"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="124"/>
       <c r="F34" s="46" t="s">
         <v>22</v>
       </c>
@@ -6157,9 +6157,9 @@
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="120"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="117" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="46" t="s">
@@ -6187,9 +6187,9 @@
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="120"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="118"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="46" t="s">
         <v>24</v>
       </c>
@@ -6213,11 +6213,11 @@
       <c r="L36" s="48"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="120"/>
-      <c r="D37" s="122" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="123" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="46" t="s">
@@ -6245,9 +6245,9 @@
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="120"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="118"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="46" t="s">
         <v>22</v>
       </c>
@@ -6271,9 +6271,9 @@
       <c r="L38" s="48"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="120"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="117" t="s">
+      <c r="C39" s="115"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="123" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="46" t="s">
@@ -6301,9 +6301,9 @@
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="121"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="118"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="46" t="s">
         <v>24</v>
       </c>
@@ -6327,14 +6327,14 @@
       <c r="L40" s="48"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="125" t="s">
+      <c r="D41" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="46" t="s">
         <v>4</v>
       </c>
@@ -6351,12 +6351,12 @@
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="120"/>
-      <c r="D42" s="125" t="s">
+      <c r="C42" s="115"/>
+      <c r="D42" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="46" t="s">
         <v>4</v>
       </c>
@@ -6373,12 +6373,12 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="120"/>
-      <c r="D43" s="125" t="s">
+      <c r="C43" s="115"/>
+      <c r="D43" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="126"/>
-      <c r="F43" s="127"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="46" t="s">
         <v>4</v>
       </c>
@@ -6395,12 +6395,12 @@
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="121"/>
-      <c r="D44" s="125" t="s">
+      <c r="C44" s="116"/>
+      <c r="D44" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="126"/>
-      <c r="F44" s="127"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="46" t="s">
         <v>38</v>
       </c>
@@ -6418,6 +6418,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="D17:D26"/>
@@ -6434,18 +6446,6 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/T製品開発/T製品開発 計画書.xlsx
+++ b/docs/T製品開発/T製品開発 計画書.xlsx
@@ -1973,12 +1973,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1988,23 +2006,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2031,21 +2046,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="D10" s="93">
         <f>MAX(改訂履歴!C5:C8)</f>
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2601,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -3819,16 +3819,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="D39:F39"/>
@@ -3839,12 +3835,16 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D65:F65"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3919,12 +3919,12 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -3949,10 +3949,10 @@
     <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C9" s="74"/>
       <c r="D9" s="72"/>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="107"/>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
       <c r="I9" s="68"/>
@@ -4017,10 +4017,10 @@
     <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C12" s="74"/>
       <c r="D12" s="72"/>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="104"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
@@ -4085,10 +4085,10 @@
     <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C15" s="74"/>
       <c r="D15" s="72"/>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
@@ -4153,10 +4153,10 @@
     <row r="18" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C18" s="74"/>
       <c r="D18" s="72"/>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="104"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
@@ -4221,10 +4221,10 @@
     <row r="21" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C21" s="74"/>
       <c r="D21" s="72"/>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="104"/>
+      <c r="F21" s="107"/>
       <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
@@ -4303,10 +4303,10 @@
     <row r="25" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C25" s="74"/>
       <c r="D25" s="72"/>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="104"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="68"/>
       <c r="H25" s="68"/>
       <c r="I25" s="70"/>
@@ -4371,10 +4371,10 @@
     <row r="28" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="74"/>
       <c r="D28" s="72"/>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="104"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="69"/>
       <c r="H28" s="68"/>
       <c r="I28" s="70"/>
@@ -4439,10 +4439,10 @@
     <row r="31" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="74"/>
       <c r="D31" s="72"/>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="104"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="69"/>
       <c r="H31" s="68"/>
       <c r="I31" s="70"/>
@@ -4507,10 +4507,10 @@
     <row r="34" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="74"/>
       <c r="D34" s="72"/>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="104"/>
+      <c r="F34" s="107"/>
       <c r="G34" s="69"/>
       <c r="H34" s="68"/>
       <c r="I34" s="70"/>
@@ -4575,10 +4575,10 @@
     <row r="37" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="74"/>
       <c r="D37" s="72"/>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="104"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="69"/>
       <c r="H37" s="68"/>
       <c r="I37" s="70"/>
@@ -4657,10 +4657,10 @@
     <row r="41" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="74"/>
       <c r="D41" s="72"/>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="104"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="69"/>
       <c r="H41" s="68"/>
       <c r="I41" s="70"/>
@@ -4725,10 +4725,10 @@
     <row r="44" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="74"/>
       <c r="D44" s="72"/>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="104"/>
+      <c r="F44" s="107"/>
       <c r="G44" s="69"/>
       <c r="H44" s="68"/>
       <c r="I44" s="70"/>
@@ -4793,10 +4793,10 @@
     <row r="47" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="74"/>
       <c r="D47" s="72"/>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="104"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="69"/>
       <c r="H47" s="68"/>
       <c r="I47" s="70"/>
@@ -4861,10 +4861,10 @@
     <row r="50" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="74"/>
       <c r="D50" s="72"/>
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="104"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="69"/>
       <c r="H50" s="68"/>
       <c r="I50" s="70"/>
@@ -4929,10 +4929,10 @@
     <row r="53" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="74"/>
       <c r="D53" s="72"/>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="104"/>
+      <c r="F53" s="107"/>
       <c r="G53" s="69"/>
       <c r="H53" s="68"/>
       <c r="I53" s="70"/>
@@ -5011,10 +5011,10 @@
     <row r="57" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C57" s="74"/>
       <c r="D57" s="72"/>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="104"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="69"/>
       <c r="H57" s="68"/>
       <c r="I57" s="70"/>
@@ -5079,10 +5079,10 @@
     <row r="60" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C60" s="74"/>
       <c r="D60" s="72"/>
-      <c r="E60" s="103" t="s">
+      <c r="E60" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="69"/>
       <c r="H60" s="68"/>
       <c r="I60" s="70"/>
@@ -5160,11 +5160,11 @@
     </row>
     <row r="64" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C64" s="74"/>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="113"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="105"/>
       <c r="G64" s="36" t="s">
         <v>4</v>
       </c>
@@ -5182,11 +5182,11 @@
     </row>
     <row r="65" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C65" s="74"/>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="113"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="36" t="s">
         <v>4</v>
       </c>
@@ -5204,11 +5204,11 @@
     </row>
     <row r="66" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C66" s="74"/>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="113"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="105"/>
       <c r="G66" s="36" t="s">
         <v>4</v>
       </c>
@@ -5226,11 +5226,11 @@
     </row>
     <row r="67" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C67" s="75"/>
-      <c r="D67" s="111" t="s">
+      <c r="D67" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="105"/>
       <c r="G67" s="36" t="s">
         <v>38</v>
       </c>
@@ -5268,18 +5268,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E37:F37"/>
@@ -5288,12 +5282,18 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D66:F66"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5339,12 +5339,12 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
       <c r="G6" s="78" t="s">
         <v>59</v>
       </c>
@@ -5365,13 +5365,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="46" t="s">
@@ -5399,9 +5399,9 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C8" s="115"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="124"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="46" t="s">
         <v>19</v>
       </c>
@@ -5425,9 +5425,9 @@
       <c r="L8" s="48"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C9" s="115"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="123" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="46" t="s">
@@ -5455,9 +5455,9 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C10" s="115"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="124"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="46" t="s">
         <v>20</v>
       </c>
@@ -5481,9 +5481,9 @@
       <c r="L10" s="48"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="115"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="123" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -5511,9 +5511,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="115"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="124"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="46" t="s">
         <v>73</v>
       </c>
@@ -5537,9 +5537,9 @@
       <c r="L12" s="48"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="115"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="123" t="s">
+      <c r="C13" s="120"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="46" t="s">
@@ -5567,9 +5567,9 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="115"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="124"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="46" t="s">
         <v>22</v>
       </c>
@@ -5593,9 +5593,9 @@
       <c r="L14" s="48"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="115"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="123" t="s">
+      <c r="C15" s="120"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="46" t="s">
@@ -5623,9 +5623,9 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="115"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="124"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
@@ -5649,11 +5649,11 @@
       <c r="L16" s="48"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="115"/>
-      <c r="D17" s="117" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="123" t="s">
+      <c r="E17" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="46" t="s">
@@ -5681,9 +5681,9 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="115"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="124"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="46" t="s">
         <v>19</v>
       </c>
@@ -5707,9 +5707,9 @@
       <c r="L18" s="48"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="115"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="123" t="s">
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="46" t="s">
@@ -5737,9 +5737,9 @@
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="115"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="124"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="46" t="s">
         <v>20</v>
       </c>
@@ -5763,9 +5763,9 @@
       <c r="L20" s="48"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="115"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="123" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="46" t="s">
@@ -5793,9 +5793,9 @@
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="115"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="124"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="46" t="s">
         <v>73</v>
       </c>
@@ -5819,9 +5819,9 @@
       <c r="L22" s="48"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="115"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="123" t="s">
+      <c r="C23" s="120"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="46" t="s">
@@ -5849,9 +5849,9 @@
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C24" s="115"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="124"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="46" t="s">
         <v>22</v>
       </c>
@@ -5875,9 +5875,9 @@
       <c r="L24" s="48"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" s="115"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="123" t="s">
+      <c r="C25" s="120"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="46" t="s">
@@ -5905,9 +5905,9 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" s="115"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="124"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="46" t="s">
         <v>24</v>
       </c>
@@ -5931,11 +5931,11 @@
       <c r="L26" s="48"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" s="115"/>
-      <c r="D27" s="117" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="123" t="s">
+      <c r="E27" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="46" t="s">
@@ -5963,9 +5963,9 @@
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" s="115"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="124"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="46" t="s">
         <v>19</v>
       </c>
@@ -5989,9 +5989,9 @@
       <c r="L28" s="48"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="115"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="123" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="117" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="46" t="s">
@@ -6019,9 +6019,9 @@
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="115"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="124"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="118"/>
       <c r="F30" s="46" t="s">
         <v>20</v>
       </c>
@@ -6045,9 +6045,9 @@
       <c r="L30" s="48"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" s="115"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="123" t="s">
+      <c r="C31" s="120"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="117" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
@@ -6075,9 +6075,9 @@
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="115"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="124"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="46" t="s">
         <v>73</v>
       </c>
@@ -6101,9 +6101,9 @@
       <c r="L32" s="48"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C33" s="115"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="123" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F33" s="46" t="s">
@@ -6131,9 +6131,9 @@
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C34" s="115"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="124"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="46" t="s">
         <v>22</v>
       </c>
@@ -6157,9 +6157,9 @@
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C35" s="115"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="123" t="s">
+      <c r="C35" s="120"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F35" s="46" t="s">
@@ -6187,9 +6187,9 @@
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C36" s="115"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="124"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="46" t="s">
         <v>24</v>
       </c>
@@ -6213,11 +6213,11 @@
       <c r="L36" s="48"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="115"/>
-      <c r="D37" s="117" t="s">
+      <c r="C37" s="120"/>
+      <c r="D37" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="117" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="46" t="s">
@@ -6245,9 +6245,9 @@
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="115"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="124"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="46" t="s">
         <v>22</v>
       </c>
@@ -6271,9 +6271,9 @@
       <c r="L38" s="48"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="115"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="123" t="s">
+      <c r="C39" s="120"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="117" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="46" t="s">
@@ -6301,9 +6301,9 @@
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="116"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="124"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="46" t="s">
         <v>24</v>
       </c>
@@ -6327,14 +6327,14 @@
       <c r="L40" s="48"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
       <c r="G41" s="46" t="s">
         <v>4</v>
       </c>
@@ -6351,12 +6351,12 @@
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="115"/>
-      <c r="D42" s="120" t="s">
+      <c r="C42" s="120"/>
+      <c r="D42" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="121"/>
-      <c r="F42" s="122"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
       <c r="G42" s="46" t="s">
         <v>4</v>
       </c>
@@ -6373,12 +6373,12 @@
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="115"/>
-      <c r="D43" s="120" t="s">
+      <c r="C43" s="120"/>
+      <c r="D43" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="127"/>
       <c r="G43" s="46" t="s">
         <v>4</v>
       </c>
@@ -6395,12 +6395,12 @@
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="116"/>
-      <c r="D44" s="120" t="s">
+      <c r="C44" s="121"/>
+      <c r="D44" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="122"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="127"/>
       <c r="G44" s="46" t="s">
         <v>38</v>
       </c>
@@ -6418,18 +6418,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="D7:D16"/>
     <mergeCell ref="D17:D26"/>
@@ -6446,6 +6434,18 @@
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
